--- a/src/data/File Template.xlsx
+++ b/src/data/File Template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ltimindtree-my.sharepoint.com/personal/subhash_718728_ltimindtree_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ltimindtree-my.sharepoint.com/personal/subhash_718728_ltimindtree_com/Documents/Citi/Parvez/POC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{36064D0F-215D-455C-B30B-88881EC4FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CB4804-A696-4ABD-BC3F-4BEA67D9C50B}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{36064D0F-215D-455C-B30B-88881EC4FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3BDB044-84CB-4B8A-BE83-28EDA104537F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{9EDD2018-C48F-429F-8E75-9B45DBB35C50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{9EDD2018-C48F-429F-8E75-9B45DBB35C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="New Requirement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -73,6 +74,60 @@
   </si>
   <si>
     <t>Valid values are ME - Manual Expense, ADJ - Adjustment, SA - South Africa, MP - Money Proof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence </t>
+  </si>
+  <si>
+    <t>Edit the file data/file template.xls to add the below new columns based on table below</t>
+  </si>
+  <si>
+    <t>use File Mandatory column from below table to change column background column to grey for columns defined as mandatory</t>
+  </si>
+  <si>
+    <t>use Sequence column from below table to decide the insertion point of column</t>
+  </si>
+  <si>
+    <t>Adjustment Type</t>
+  </si>
+  <si>
+    <t>O - Optional</t>
+  </si>
+  <si>
+    <t>Field Description</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>M - Mandatory</t>
+  </si>
+  <si>
+    <t>CM - Conditional Mandatory</t>
+  </si>
+  <si>
+    <t>Sample Values</t>
+  </si>
+  <si>
+    <t>explains the adjustment type based on adjusment definition</t>
+  </si>
+  <si>
+    <t>Adding/Removing  Records, Overwrite Missing, Manual Data Transfer</t>
+  </si>
+  <si>
+    <t>a drop down list will be available for user while filling</t>
+  </si>
+  <si>
+    <t>frequency of adjustment</t>
+  </si>
+  <si>
+    <t>Daily, Monthly, Quarterly, Yearly, Ad-hoc</t>
+  </si>
+  <si>
+    <t>Reason CodeLevel 1</t>
+  </si>
+  <si>
+    <t>Leve 1 reason for adjustment</t>
   </si>
 </sst>
 </file>
@@ -147,11 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,9 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262E8E16-FF4C-4D18-87F8-1583AA070C2E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -521,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B7976C-1AA8-47CF-BB49-E2119FA04DE2}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,4 +663,128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D884DA-67F6-4FDE-BE39-3066583C267C}">
+  <dimension ref="A3:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>